--- a/Excel-Learning/24打印保护/24讲课素材-02-客户信息表-空白.xlsx
+++ b/Excel-Learning/24打印保护/24讲课素材-02-客户信息表-空白.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81633469-3E81-4DE5-8B0D-34E823D7E193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBEAECE-49E1-47C8-A5CE-C999F497A2BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>省份</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -479,13 +479,13 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="5" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="5" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:8" ht="14.65">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -511,7 +511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -537,7 +537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -563,7 +563,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -589,7 +589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -615,7 +615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
